--- a/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND6/cond6_loc3_processed.xlsx
+++ b/Final/HUHF-IOT-TEST_005-CSV_POST_PROC/HUHF-IOT-TEST_005-CSV_COND6/cond6_loc3_processed.xlsx
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.05877094878048782</v>
+        <v>58.77094878048782</v>
       </c>
     </row>
   </sheetData>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.02386634844868735</v>
+        <v>2.386634844868735</v>
       </c>
     </row>
   </sheetData>
